--- a/input/TRNSYS/18.06.0002/Std140_CE_b_Output.xlsx
+++ b/input/TRNSYS/18.06.0002/Std140_CE_b_Output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ashrae-140-automation\input\TRNSYS\18.06.0002\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3140A58-5750-4FB1-A845-58B688FD0B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBED3AF7-EED2-4D80-B42E-4E44DA481AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="18600" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="217">
   <si>
     <t>Std140_CE_b_Output.xls</t>
   </si>
@@ -687,45 +687,17 @@
     <t xml:space="preserve">      C a s e   C E 5 3 0   A v e r a g e   D a i l y   O u t p u t s  -  f(ODB) sensitivity</t>
   </si>
   <si>
-    <t>Program Name and Version (with full build detail):</t>
-  </si>
-  <si>
-    <t>TRNSYS18.06.0002</t>
-  </si>
-  <si>
-    <t>Program Version Release Date:</t>
-  </si>
-  <si>
-    <t>Program Name for Tables and Charts (short):</t>
-  </si>
-  <si>
     <t>TRNSYS</t>
-  </si>
-  <si>
-    <t>Results Submission Date:</t>
-  </si>
-  <si>
-    <t>Modeler Organization for Titles (long):</t>
-  </si>
-  <si>
-    <t>Thermal Energy System Specialists, LLC</t>
-  </si>
-  <si>
-    <t>Modeler Organization for Tables and Charts (short):</t>
-  </si>
-  <si>
-    <t>TESS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mmm_)"/>
-    <numFmt numFmtId="165" formatCode="d\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Helv"/>
@@ -741,37 +713,20 @@
       <name val="Helv"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="41"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="26">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1002,64 +957,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -1160,29 +1063,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1494,7 +1374,7 @@
   <dimension ref="A1:AN130"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:J8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1544,103 +1424,37 @@
     <col min="48" max="53" width="7.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="58" t="s">
-        <v>217</v>
-      </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="60"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="F3" s="61" t="s">
-        <v>218</v>
-      </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="64">
-        <v>45490</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="65" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F5" s="61" t="s">
-        <v>221</v>
-      </c>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64">
-        <v>45523</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="61" t="s">
-        <v>222</v>
-      </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="66"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F7" s="58" t="s">
-        <v>223</v>
-      </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="60"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="61" t="s">
-        <v>224</v>
-      </c>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="65" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1649,7 +1463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1658,7 +1472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1667,7 +1481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1676,7 +1490,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
@@ -1685,7 +1499,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
@@ -1694,7 +1508,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
@@ -6969,11 +6783,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="B117:E117"/>
     <mergeCell ref="B126:E126"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="F7:J7"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.4" top="0.5" bottom="0.55000000000000004" header="0.5" footer="0.5"/>
   <pageSetup scale="58" orientation="landscape" horizontalDpi="4294967292" verticalDpi="0"/>

--- a/input/TRNSYS/18.06.0002/Std140_CE_b_Output.xlsx
+++ b/input/TRNSYS/18.06.0002/Std140_CE_b_Output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ashrae-140-automation\input\TRNSYS\18.06.0002\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBED3AF7-EED2-4D80-B42E-4E44DA481AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F4E25E-EC44-45B6-8DC8-06E26C282314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32265" yWindow="3855" windowWidth="23250" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="216">
   <si>
     <t>Std140_CE_b_Output.xls</t>
   </si>
@@ -637,9 +637,6 @@
   </si>
   <si>
     <t>19</t>
-  </si>
-  <si>
-    <t>0-May</t>
   </si>
   <si>
     <t>20</t>
@@ -1373,8 +1370,8 @@
   </sheetPr>
   <dimension ref="A1:AN130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM107" sqref="AM107:AN107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1436,7 +1433,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -6098,10 +6095,10 @@
         <v>3.7984138255538191E-4</v>
       </c>
       <c r="AG107" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="AH107">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI107" s="32">
         <v>99.999999999999957</v>
@@ -6116,15 +6113,15 @@
         <v>3.6262966070030371</v>
       </c>
       <c r="AM107" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="AN107" s="33">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B108" s="19">
         <v>4840.35606581702</v>
@@ -6184,7 +6181,7 @@
         <v>35.000000000000007</v>
       </c>
       <c r="X108" s="35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Y108" s="35">
         <v>11</v>
@@ -6211,7 +6208,7 @@
         <v>0</v>
       </c>
       <c r="AG108" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AH108" s="35">
         <v>15</v>
@@ -6229,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="AM108" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN108" s="36">
         <v>15</v>
@@ -6237,7 +6234,7 @@
     </row>
     <row r="109" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B109" s="19">
         <v>3967.4585210080859</v>
@@ -6273,12 +6270,12 @@
         <v>1.6808790075456659E-2</v>
       </c>
       <c r="P109" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="110" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B110" s="19">
         <v>3927.7990186236698</v>
@@ -6316,7 +6313,7 @@
     </row>
     <row r="111" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B111" s="19">
         <v>3829.16604866535</v>
@@ -6354,7 +6351,7 @@
     </row>
     <row r="112" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A112" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B112" s="21">
         <v>3789.555125995164</v>
@@ -6393,7 +6390,7 @@
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="6"/>
       <c r="B115" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -6429,7 +6426,7 @@
       <c r="D117" s="54"/>
       <c r="E117" s="55"/>
       <c r="F117" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I117" s="15" t="s">
         <v>67</v>
@@ -6440,7 +6437,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B118" s="15" t="s">
         <v>77</v>
@@ -6464,7 +6461,7 @@
         <v>82</v>
       </c>
       <c r="I118" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J118" s="25" t="s">
         <v>143</v>
@@ -6512,7 +6509,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B120" s="19">
         <v>4051.9711558537178</v>
@@ -6550,7 +6547,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B121" s="21">
         <v>5275.1782605698763</v>
@@ -6589,7 +6586,7 @@
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="6"/>
       <c r="B124" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -6625,7 +6622,7 @@
       <c r="D126" s="54"/>
       <c r="E126" s="55"/>
       <c r="F126" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I126" s="15" t="s">
         <v>67</v>
@@ -6636,7 +6633,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B127" s="15" t="s">
         <v>77</v>
@@ -6660,7 +6657,7 @@
         <v>82</v>
       </c>
       <c r="I127" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J127" s="25" t="s">
         <v>143</v>
@@ -6708,7 +6705,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B129" s="19">
         <v>2990.1605360836402</v>
@@ -6746,7 +6743,7 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B130" s="21">
         <v>3908.881185715813</v>
